--- a/activity/LandUseIGAC/LandUseIGAC.xlsx
+++ b/activity/LandUseIGAC/LandUseIGAC.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebacorreoescuelaingeduco-my.sharepoint.com/personal/william_aguilar_escuelaing_edu_co/Documents/ECIJG.ClassSourcecode/SIGE/ref/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\LandUseIGAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{42A43C1A-8E51-482B-A78C-E4A362633B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38FBCD78-E22A-408F-BF37-2A5B7921CA61}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E6808-8F4B-4B27-954C-EED3F3F83A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21208FE1-7B56-410C-AC24-802F18B01A4A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{21208FE1-7B56-410C-AC24-802F18B01A4A}"/>
   </bookViews>
   <sheets>
-    <sheet name="destec" sheetId="1" r:id="rId1"/>
+    <sheet name="DestEc" sheetId="1" r:id="rId1"/>
+    <sheet name="Markdown" sheetId="3" r:id="rId2"/>
+    <sheet name="About" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>A</t>
   </si>
@@ -98,15 +100,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>destecnom</t>
-  </si>
-  <si>
-    <t>destec</t>
-  </si>
-  <si>
-    <t>destecdesc</t>
-  </si>
-  <si>
     <t>Sin destinación</t>
   </si>
   <si>
@@ -170,9 +163,6 @@
     <t>Lote urbanizado no construido o edificado</t>
   </si>
   <si>
-    <t>Lote No Urbanizable</t>
-  </si>
-  <si>
     <t>Predios destinados a vivienda. Se incluyen dentro de esta clase los parqueaderos, garajes y depósitos contenidos en el reglamento de propiedad horizontal, ligado a este destino.</t>
   </si>
   <si>
@@ -231,13 +221,37 @@
   </si>
   <si>
     <t>Predios que de conformidad con la reglamentación no se permite su desarrollo urbanístico.</t>
+  </si>
+  <si>
+    <t>DestEc</t>
+  </si>
+  <si>
+    <t>DestEcNom</t>
+  </si>
+  <si>
+    <t>DestEcDesc</t>
+  </si>
+  <si>
+    <t>Acerca de</t>
+  </si>
+  <si>
+    <t>Artículo 86 de la Resolución 70 de 2011, Instituto Geográfico Agustín Codazzi - IGAC</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Texto para tres columnas</t>
+  </si>
+  <si>
+    <t>Lote no Urbanizable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +262,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
@@ -307,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -320,6 +340,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,9 +366,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -379,7 +406,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -485,7 +512,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -627,7 +654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -637,257 +664,665 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E897A-43FC-4B8D-9023-B3E651323DBE}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="115.5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7F3B88-AC80-4845-8697-B318885B3D95}">
+  <dimension ref="B2:E25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E2" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| DestEc | DestEcNom | DestEcDesc |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" ref="E4:E25" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," |")</f>
+        <v>| --- | --- | --- |</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| 0 | Sin destinación | Sin destinación asociada |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="66" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| A | Habitacional | Predios destinados a vivienda. Se incluyen dentro de esta clase los parqueaderos, garajes y depósitos contenidos en el reglamento de propiedad horizontal, ligado a este destino. |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| B | Industrial | Predios en los cuales se desarrollan actividades de elaboración y transformación de materias primas. |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| C | Comercial | Predios destinados al intercambio de bienes y/o servicios con el fin de satisfacer las necesidades de una colectividad. |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| D | Agropecuario | Predios con destinación agrícola y pecuaria. |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| E | Minero | Predios destinados a la extracción y explotación de minerales. |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| F | Cultural | Predios destinados al desarrollo de actividades artísticas e intelectuales. |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| G | Recreacional | Predios dedicados al desarrollo o a la práctica de actividades de esparcimiento y entretenimiento. |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| H | Salubridad | Predios destinados a clínicas, hospitales y puestos de salud. |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| I | Institucionales | Predios destinados a la administración y prestación de servicios del Estado y que no están incluidos en los literales de este artículo. |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| J | Educativo | Predios destinados al desarrollo de actividades académicas. |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| K | Religioso | Predios destinados a la práctica de culto religioso. |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| L | Agrícola | Predios destinados a la siembra y aprovechamiento de especies vegetales. |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| M | Pecuario | Predios destinados a la cría, beneficio y aprovechamiento de especies animales. |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| N | Agroindustrial | Predios destinados a la actividad que implica cultivo y transformación en los sectores agrícola, pecuario y forestal. |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| O | Forestal | Predios destinados a la explotación de especies maderables y no maderables. |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| P | Uso Público | Predios cuyo uso es abierto a la comunidad y que no están incluidos en los literales anteriores. |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="231" x14ac:dyDescent="0.45">
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| Q | Servicios Especiales | Predios que genera alto impacto ambiental y /o Social. Entre otros, están:  Centro de Almacenamiento de Combustible, Cementerios, Embalses, Rellenos Sanitarios, Lagunas de Oxidación, Mataderos, Frigoríficos y Cárceles. Parágrafo 1°. Esta clasificación podrá ser objeto de subclasificación de acuerdo con lo establecido mediante reglamento del Instituto Geográfico "Agustín Codazzi". Parágrafo 2°. En los casos de existir diversas destinaciones en un mismo predio, se clasificará atendiendo aquella actividad predominante que se desarrolle, para lo cual se aplicará el criterio de tomar la mayor área de terreno y /o construcción. Parágrafo 3°. Para fines catastrales y estadísticos los lotes se clasificarán de acuerdo con su grado de desarrollo, así |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| R | Lote urbanizable no urbanizado | Predios no construidos que estando reglamentados para su desarrollo, no han sido urbanizados. |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| S | Lote urbanizado no construido o edificado | Predios no construidos que cuentan con algún tipo de obra de urbanismo. |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| T | Lote no Urbanizable | Predios que de conformidad con la reglamentación no se permite su desarrollo urbanístico. |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21EBC6C-82EB-497B-B566-C534F5297A22}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67.53125" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B2" s="5" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B3" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
